--- a/resources/Library.xlsx
+++ b/resources/Library.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\libraryhhs\resources\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
   <si>
     <t>Title</t>
   </si>
@@ -186,12 +186,40 @@
   </si>
   <si>
     <t>Inventory</t>
+  </si>
+  <si>
+    <t>Ego Is The Enemy</t>
+  </si>
+  <si>
+    <t>Ryan Holiday</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>9781591847816</t>
+  </si>
+  <si>
+    <t>Portfolio, Penguin</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Non-fiction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -540,7 +568,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00CA1DD-83D4-4E24-A179-F9689E3BB369}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
@@ -548,147 +576,147 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="39.140625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="31.85546875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="59.0"/>
+    <col min="4" max="4" customWidth="true" width="14.7109375"/>
+    <col min="5" max="5" customWidth="true" width="27.28515625"/>
+    <col min="6" max="6" customWidth="true" width="21.140625"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="17.5703125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.28515625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="9.28515625"/>
+    <col min="11" max="11" customWidth="true" width="10.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="0">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D2" s="1">
         <v>9780446310789</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>24</v>
       </c>
       <c r="F2" s="3">
         <v>1988</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="0">
         <v>10</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="0">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>16</v>
       </c>
       <c r="D3" s="1">
         <v>9780590353427</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>25</v>
       </c>
       <c r="F3" s="3">
         <v>1997</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="0">
         <v>6</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="0">
         <v>26</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D4" s="1">
         <v>9780316769488</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>26</v>
       </c>
       <c r="F4" s="3">
         <v>1991</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="0">
         <v>5</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="0">
         <v>1</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="0">
         <v>8</v>
       </c>
     </row>
@@ -696,202 +724,202 @@
       <c r="A5" s="2">
         <v>1984</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>18</v>
       </c>
       <c r="D5" s="1">
         <v>9780451524935</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>27</v>
       </c>
       <c r="F5" s="3">
         <v>1961</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="0">
         <v>8</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="0">
         <v>1</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D6" s="1">
         <v>9780743273565</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>28</v>
       </c>
       <c r="F6" s="3">
         <v>2004</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="0">
         <v>9</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="0">
         <v>30</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>23</v>
       </c>
       <c r="D7" s="1">
         <v>9780345339706</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>29</v>
       </c>
       <c r="F7" s="3">
         <v>1986</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="0">
         <v>7</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="0">
         <v>12</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>20</v>
       </c>
       <c r="D8" s="1">
         <v>9780547928227</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>30</v>
       </c>
       <c r="F8" s="3">
         <v>2012</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="0">
         <v>9</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="0">
         <v>18</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>21</v>
       </c>
       <c r="D9" s="1">
         <v>9780345391803</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="0">
         <v>31</v>
       </c>
       <c r="F9" s="3">
         <v>1995</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="0">
         <v>8</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="0">
         <v>17</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>22</v>
       </c>
       <c r="D10" s="1">
         <v>9781613820122</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="0">
         <v>32</v>
       </c>
       <c r="F10" s="3">
         <v>2011</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="0">
         <v>5</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="0">
         <v>19</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>39</v>
       </c>
       <c r="D11" s="1">
@@ -900,49 +928,84 @@
       <c r="F11" s="3">
         <v>1946</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>46</v>
       </c>
       <c r="D12" s="1">
         <v>9781781257654</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" t="s" s="0">
         <v>47</v>
       </c>
       <c r="F12" s="3">
         <v>2016</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="0">
         <v>10</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="0">
         <v>18</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="K12">
-        <v>8</v>
+      <c r="K12" s="0" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="H13" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I13" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="J13" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>8.0</v>
       </c>
     </row>
   </sheetData>

--- a/resources/Library.xlsx
+++ b/resources/Library.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\libraryhhs\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09ED1721-28D7-49E2-B776-0E7791FC21EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD6FFD7-BC9E-4C66-9504-95B112000EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{4E446A2F-3CF8-4636-BFCE-3439258DFFBB}"/>
   </bookViews>
@@ -36,7 +36,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
+  <si>
+    <t>The Daily Stoic</t>
+  </si>
   <si>
     <t>Title</t>
   </si>
@@ -53,126 +56,126 @@
     <t>Publisher</t>
   </si>
   <si>
+    <t>Publication year</t>
+  </si>
+  <si>
+    <t>Publication month</t>
+  </si>
+  <si>
+    <t>Publication day</t>
+  </si>
+  <si>
     <t>Genre</t>
   </si>
   <si>
     <t>Language</t>
   </si>
   <si>
+    <t>Inventory</t>
+  </si>
+  <si>
     <t>To Kill a Mockingbird</t>
   </si>
   <si>
+    <t>Harper Lee</t>
+  </si>
+  <si>
+    <t>Grand Central Publishing</t>
+  </si>
+  <si>
+    <t>Fiction</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
     <t>Harry Potter and the Philosopher's Stone</t>
   </si>
   <si>
+    <t>J.K. Rowling</t>
+  </si>
+  <si>
+    <t>Bloomsbury Publishing</t>
+  </si>
+  <si>
+    <t>Fantasy</t>
+  </si>
+  <si>
     <t>The Catcher in the Rye</t>
   </si>
   <si>
+    <t>J.D. Salinger</t>
+  </si>
+  <si>
+    <t>Little, Brown and Company</t>
+  </si>
+  <si>
+    <t>George Orwell</t>
+  </si>
+  <si>
+    <t>Signet Classics</t>
+  </si>
+  <si>
+    <t>Science Fiction</t>
+  </si>
+  <si>
     <t>The Great Gatsby</t>
   </si>
   <si>
+    <t>F. Scott Fitzgerald</t>
+  </si>
+  <si>
+    <t>Scribner</t>
+  </si>
+  <si>
     <t>The Lord of The Rings</t>
   </si>
   <si>
+    <t>J.R.R. Tolkien</t>
+  </si>
+  <si>
+    <t>Fellowship of the Ring</t>
+  </si>
+  <si>
+    <t>Ballantine Books</t>
+  </si>
+  <si>
     <t>The Hobbit</t>
   </si>
   <si>
+    <t>Houghton Mifflin Harcourt</t>
+  </si>
+  <si>
     <t>The Hitchhiker's Guide to the Galaxy</t>
   </si>
   <si>
+    <t>Douglas Adams</t>
+  </si>
+  <si>
+    <t>Del Rey</t>
+  </si>
+  <si>
     <t>Pride and Prejudice</t>
   </si>
   <si>
-    <t>Harper Lee</t>
-  </si>
-  <si>
-    <t>J.K. Rowling</t>
-  </si>
-  <si>
-    <t>J.D. Salinger</t>
-  </si>
-  <si>
-    <t>George Orwell</t>
-  </si>
-  <si>
-    <t>F. Scott Fitzgerald</t>
-  </si>
-  <si>
-    <t>J.R.R. Tolkien</t>
-  </si>
-  <si>
-    <t>Douglas Adams</t>
-  </si>
-  <si>
     <t>Jane Austen</t>
   </si>
   <si>
-    <t>Fellowship of the Ring</t>
-  </si>
-  <si>
-    <t>Grand Central Publishing</t>
-  </si>
-  <si>
-    <t>Bloomsbury Publishing</t>
-  </si>
-  <si>
-    <t>Little, Brown and Company</t>
-  </si>
-  <si>
-    <t>Signet Classics</t>
-  </si>
-  <si>
-    <t>Scribner</t>
-  </si>
-  <si>
-    <t>Ballantine Books</t>
-  </si>
-  <si>
-    <t>Houghton Mifflin Harcourt</t>
-  </si>
-  <si>
-    <t>Del Rey</t>
-  </si>
-  <si>
     <t>Simon &amp; Brown</t>
   </si>
   <si>
-    <t>Fiction</t>
-  </si>
-  <si>
-    <t>Fantasy</t>
-  </si>
-  <si>
-    <t>Science Fiction</t>
-  </si>
-  <si>
     <t>Romance</t>
   </si>
   <si>
-    <t>English</t>
-  </si>
-  <si>
     <t>Man's Search For Meaning</t>
   </si>
   <si>
     <t>Viktor E. Frankl</t>
   </si>
   <si>
-    <t>Publication year</t>
-  </si>
-  <si>
-    <t>Publication month</t>
-  </si>
-  <si>
-    <t>Publication day</t>
-  </si>
-  <si>
     <t>Psychology</t>
   </si>
   <si>
-    <t>The Daily Stoic</t>
-  </si>
-  <si>
     <t>Ryan Holiday, Stephen Hanselman</t>
   </si>
   <si>
@@ -185,34 +188,16 @@
     <t>Stoicism</t>
   </si>
   <si>
-    <t>Inventory</t>
-  </si>
-  <si>
     <t>Ego Is The Enemy</t>
   </si>
   <si>
     <t>Ryan Holiday</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>9781591847816</t>
-  </si>
-  <si>
     <t>Portfolio, Penguin</t>
   </si>
   <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Non-fiction</t>
+    <t>Non-Fiction</t>
   </si>
 </sst>
 </file>
@@ -220,10 +205,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -249,11 +241,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,7 +562,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,422 +581,431 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="0">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="G1" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="H1" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="I1" t="s" s="0">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s" s="0">
-        <v>49</v>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s" s="0">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2">
+        <v>9780446310789</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1988</v>
+      </c>
+      <c r="G2" s="1">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1">
-        <v>9780446310789</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1988</v>
-      </c>
-      <c r="G2" s="0">
-        <v>10</v>
-      </c>
-      <c r="H2" s="0">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="J2" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="K2" s="0">
+      <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s" s="0">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2">
+        <v>9780590353427</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1997</v>
+      </c>
+      <c r="G3" s="1">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1">
+        <v>26</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1">
-        <v>9780590353427</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1997</v>
-      </c>
-      <c r="G3" s="0">
-        <v>6</v>
-      </c>
-      <c r="H3" s="0">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="J3" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="K3" s="0">
+      <c r="K3" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2">
         <v>9780316769488</v>
       </c>
-      <c r="E4" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1">
         <v>1991</v>
       </c>
-      <c r="G4" s="0">
+      <c r="G4" s="1">
         <v>5</v>
       </c>
-      <c r="H4" s="0">
+      <c r="H4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="J4" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="K4" s="0">
+      <c r="I4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>1984</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2">
         <v>9780451524935</v>
       </c>
-      <c r="E5" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="1">
         <v>1961</v>
       </c>
-      <c r="G5" s="0">
+      <c r="G5" s="1">
         <v>8</v>
       </c>
-      <c r="H5" s="0">
+      <c r="H5" s="1">
         <v>1</v>
       </c>
-      <c r="I5" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="J5" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="K5" s="0">
-        <v>8</v>
+      <c r="I5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2">
         <v>9780743273565</v>
       </c>
-      <c r="E6" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1">
         <v>2004</v>
       </c>
-      <c r="G6" s="0">
+      <c r="G6" s="1">
         <v>9</v>
       </c>
-      <c r="H6" s="0">
+      <c r="H6" s="1">
         <v>30</v>
       </c>
-      <c r="I6" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="J6" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="K6" s="0">
+      <c r="I6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s" s="0">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2">
+        <v>9780345339706</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1986</v>
+      </c>
+      <c r="G7" s="1">
+        <v>7</v>
+      </c>
+      <c r="H7" s="1">
+        <v>12</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="D7" s="1">
-        <v>9780345339706</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1986</v>
-      </c>
-      <c r="G7" s="0">
-        <v>7</v>
-      </c>
-      <c r="H7" s="0">
-        <v>12</v>
-      </c>
-      <c r="I7" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="J7" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="K7" s="0">
+      <c r="J7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s" s="0">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2">
+        <v>9780547928227</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2012</v>
+      </c>
+      <c r="G8" s="1">
+        <v>9</v>
+      </c>
+      <c r="H8" s="1">
+        <v>18</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="1">
-        <v>9780547928227</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2012</v>
-      </c>
-      <c r="G8" s="0">
-        <v>9</v>
-      </c>
-      <c r="H8" s="0">
-        <v>18</v>
-      </c>
-      <c r="I8" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="J8" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="K8" s="0">
+      <c r="J8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2">
         <v>9780345391803</v>
       </c>
-      <c r="E9" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="E9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="1">
         <v>1995</v>
       </c>
-      <c r="G9" s="0">
+      <c r="G9" s="1">
         <v>8</v>
       </c>
-      <c r="H9" s="0">
+      <c r="H9" s="1">
         <v>17</v>
       </c>
-      <c r="I9" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="J9" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="K9" s="0">
+      <c r="I9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2">
         <v>9781613820122</v>
       </c>
-      <c r="E10" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="E10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="1">
         <v>2011</v>
       </c>
-      <c r="G10" s="0">
+      <c r="G10" s="1">
         <v>5</v>
       </c>
-      <c r="H10" s="0">
+      <c r="H10" s="1">
         <v>19</v>
       </c>
-      <c r="I10" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="J10" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="K10" s="0">
+      <c r="I10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2">
         <v>9780807092156</v>
       </c>
-      <c r="F11" s="3">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1">
         <v>1946</v>
       </c>
-      <c r="I11" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="J11" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="K11" s="0">
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="C12" t="s" s="0">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="1">
+      <c r="C12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="2">
         <v>9781781257654</v>
       </c>
-      <c r="E12" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="E12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="1">
         <v>2016</v>
       </c>
-      <c r="G12" s="0">
+      <c r="G12" s="1">
         <v>10</v>
       </c>
-      <c r="H12" s="0">
+      <c r="H12" s="1">
         <v>18</v>
       </c>
-      <c r="I12" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="J12" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>7.0</v>
+      <c r="I12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>8.0</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="s" s="0">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B13" t="s" s="0">
+      <c r="B13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C13" t="s" s="0">
+      <c r="D13" s="2">
+        <v>9781591847816</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D13" t="s" s="0">
+      <c r="F13" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G13" s="1">
+        <v>6</v>
+      </c>
+      <c r="H13" s="1">
+        <v>14</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E13" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="F13" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="G13" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="H13" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="I13" t="s" s="0">
-        <v>58</v>
-      </c>
-      <c r="J13" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="K13" t="n" s="0">
-        <v>8.0</v>
+      <c r="J13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="1">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/resources/Library.xlsx
+++ b/resources/Library.xlsx
@@ -973,7 +973,7 @@
         <v>16</v>
       </c>
       <c r="K12" s="1" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">

--- a/resources/Library.xlsx
+++ b/resources/Library.xlsx
@@ -3,21 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\libraryhhs\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD6FFD7-BC9E-4C66-9504-95B112000EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3764BBA1-71CA-4382-8A50-200ABC36B55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{4E446A2F-3CF8-4636-BFCE-3439258DFFBB}"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11835" xr2:uid="{4E446A2F-3CF8-4636-BFCE-3439258DFFBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="cd" sheetId="2" r:id="rId2"/>
+    <sheet name="dvd" sheetId="3" r:id="rId3"/>
+    <sheet name="manga" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
   <si>
     <t>The Daily Stoic</t>
   </si>
@@ -198,13 +201,81 @@
   </si>
   <si>
     <t>Non-Fiction</t>
+  </si>
+  <si>
+    <t>Artist</t>
+  </si>
+  <si>
+    <t># of tracks</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>Miley Cyrus</t>
+  </si>
+  <si>
+    <t>Pharrell Williams</t>
+  </si>
+  <si>
+    <t>Limited Edition Picture Disc CD Rare Collectible Music Display</t>
+  </si>
+  <si>
+    <t>Limited Edition 24KT CD Display</t>
+  </si>
+  <si>
+    <t>Director</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Anthony Russo, Joe Russo</t>
+  </si>
+  <si>
+    <t>Duration (min)</t>
+  </si>
+  <si>
+    <t>Avengers: Endgame</t>
+  </si>
+  <si>
+    <t>American Psycho</t>
+  </si>
+  <si>
+    <t>Mary harron</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>PG-13</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t># of volumes</t>
+  </si>
+  <si>
+    <t>Bloody Monday</t>
+  </si>
+  <si>
+    <t>Writer</t>
+  </si>
+  <si>
+    <t>Ryumon Ryo</t>
+  </si>
+  <si>
+    <t>Berserk</t>
+  </si>
+  <si>
+    <t>Kentaro Miura</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -561,23 +632,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00CA1DD-83D4-4E24-A179-F9689E3BB369}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.140625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="31.85546875"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="59.0"/>
-    <col min="4" max="4" customWidth="true" width="14.7109375"/>
-    <col min="5" max="5" customWidth="true" width="27.28515625"/>
-    <col min="6" max="6" customWidth="true" width="21.140625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="17.5703125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.7109375"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.28515625"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="9.28515625"/>
-    <col min="11" max="11" customWidth="true" width="10.7109375"/>
+    <col min="1" max="1" width="39.140625" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -743,8 +814,8 @@
       <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="1" t="n">
-        <v>8.0</v>
+      <c r="K5" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -972,8 +1043,8 @@
       <c r="J12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="1" t="n">
-        <v>7.0</v>
+      <c r="K12" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1011,6 +1082,204 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36841975-BF27-4071-AD63-63FE1F15CCEE}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="56.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BDBCF64-A883-49BF-811C-3697655E3DF3}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2">
+        <v>181</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3">
+        <v>102</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3">
+        <v>2000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24CC3009-A741-422D-AF04-D208E0FF59ED}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3">
+        <v>41</v>
+      </c>
+      <c r="D3">
+        <v>1989</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
